--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_227.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_227.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.141025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1187888198757764</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'E']]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(52.711123, 59.224321)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.585419, 21.24102)]</t>
+          <t>[('0:00:01.014823', '0:00:06.126439')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[('0:00:59.800000', '0:01:09.340000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
@@ -618,52 +630,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5283018867924528</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:19.708503', '0:00:25.501882')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,534 +680,504 @@
           <t>schubert-winterreise_52</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:09.600000', '0:00:32.340000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:32.700000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:00:34.940000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.88, 45.64)]</t>
+          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.820000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:00:53.460000', '0:01:02.740000'), ('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:32.320000', '0:00:33.880000'), ('0:00:32.040000', '0:00:33.420000'), ('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1536643026004728</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D', 'A']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.090897, 18.241101)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.101913, 7.754783)]</t>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.38, 43.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.54, 6.88)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
